--- a/data_bh/erros_carrefour_bh-2025-09.xlsx
+++ b/data_bh/erros_carrefour_bh-2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,6 +1235,781 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Páprica Defumada Kitano Reserva 36g</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/farofa-de-mandioca-tradicional-yoki-400g-6582613/p</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/massa-para-pastel-discao-massa-leve-500g-841757/p</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pimentão Block Vermelho Trebeshi 150 g</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/pimentao-block-vermelho-trebeshi-150-g-5738458/p</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/chocolate-ao-leite-com-amendoim-shot-165g-5790859/p</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Couve Flor Cledson 300 g</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/couve-flor-cledson-300-g-9560297/p</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/patinho-fracionado-a-vacuo-500g-18325/p</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/paleta-bovina-a-vacuo-500gnao-reativarcodigo-de-compra-20745/p</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/costela-minga-bovina-cong-aprox-2kg-224006/p</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/presunto-cozido-sem-capa-fatiado-aurora-aproximadamente-200-g-49450/p</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/mortadela-defumada-sadia-280g-5447045/p</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/queijo-minas-frescal-aurora-450-g-6264693/p</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/queijo-coalho-bom-leite-500-g-4305054/p</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/leite-uht-integral-piratininga-1-l-665017/p</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/iogurte-natural-tradicional-batavo-170g-5150439/p</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/manteiga-com-sal-aviacao-200-g-10010/p</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/creme-de-leite-ultrapasteurizado-itambe-200-g-5988921/p</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/requeijao-cremoso-aviacao-tradicional-220-g-10000/p</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/acucar-cristal-carrefour-1kg-5147300/p</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/mel-com-cacau-e-avela-400-g-4510146/p</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/geleia-de-goiaba-selecoes-c-pedacos-260-g-1280815/p</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/suco-de-uva-integral-maric-1-l-3538256/p</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/vinho-tinto-fino-seco-cabernet-sauvignon-pergola-750ml-1521709/p</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/whisky-red-label-johnnie-walker-1-litro-2719/p</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/refrigerante-coca-cola-sabor-cola-1-5-l-11087/p</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/cafe-torrado-e-moido-extraforte-melitta-500g-271203/p</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/farinha-de-trigo-dona-benta-tradicional-1kg-196416/p</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/azeite-extravirgem-portugues-oliveira-da-serra-500-ml-4526108/p</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/oleo-de-soja-soya-900ml-482616/p</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/margarina-qualy-com-sal-250g-4815618/p</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/arroz-branco-longofino-tipo-1-tio-joao-1kg-115658/p</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://mercado.carrefour.com.br/feijao-preto-tipo-1-kicaldo-1kg-466510/p</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
